--- a/TuyenSinhWinApp/bin/Debug/Templates/TheDuThi_Template.xlsx
+++ b/TuyenSinhWinApp/bin/Debug/Templates/TheDuThi_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCM\source\repos\TuyenSinh10Solution\TuyenSinhWinApp\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCM\Downloads\Danh sách trúng tuyển\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203E35B-3239-4824-8456-9F9125BC11A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6BAFA-336B-4C61-9DC0-C59E1F5C92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA090254-6AFE-4FFE-A08B-F6BE49406C5F}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sở GD - ĐT Trà Vinh</t>
   </si>
@@ -108,28 +108,44 @@
     <t>(Ký tên và đóng dấu)</t>
   </si>
   <si>
-    <t>{HoTen}</t>
-  </si>
-  <si>
-    <t>{NgaySinh}</t>
-  </si>
-  <si>
-    <t>{GioiTinh}</t>
-  </si>
-  <si>
-    <t>{MaSoBaoDanh}</t>
-  </si>
-  <si>
-    <t>{TruongTHCS}</t>
-  </si>
-  <si>
-    <t>{NoiSinh}</t>
-  </si>
-  <si>
-    <t>{DanToc}</t>
-  </si>
-  <si>
-    <t>{PhongThi}</t>
+    <t>Phòng thi: {MaPhongThi}</t>
+  </si>
+  <si>
+    <t>Thí sinh có mặt tại phòng thi lúc 14h00 ngày {NgayBatDau} để làm thủ tục dự thi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KỲ THI TUYỂN SINH LỚP 10, KHÓA NGÀY {NgayBatDau} </t>
+  </si>
+  <si>
+    <t>Điểm coi thi: 
+ {TenTruong}</t>
+  </si>
+  <si>
+    <t>Họ và tên: {HoTen}</t>
+  </si>
+  <si>
+    <t>Ngày sinh : {NgaySinh}</t>
+  </si>
+  <si>
+    <t>Giới tính: {GioiTinh}</t>
+  </si>
+  <si>
+    <t>Mã số báo danh: {MaSoBaoDanh}</t>
+  </si>
+  <si>
+    <t>Trường THCS: {TruongTHCS}</t>
+  </si>
+  <si>
+    <t>Nơi sinh: {NoiSinh}</t>
+  </si>
+  <si>
+    <t>Phòng thi: {PhongThi}</t>
+  </si>
+  <si>
+    <t>Dân tộc: {DanToc}</t>
+  </si>
+  <si>
+    <t>Trà Vinh, Ngày {NgayXuat_d}, tháng {NgayXuat_m}, năm {NgayXuat_y}</t>
   </si>
 </sst>
 </file>
@@ -654,11 +670,6 @@
             <v>Thực hành Sư phạm</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Khóa ngày: 05/06/2024</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6">
             <v>1</v>
@@ -697,42 +708,15 @@
           <cell r="B6">
             <v>24</v>
           </cell>
-          <cell r="H6" t="str">
-            <v>22</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>2024</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>24</v>
           </cell>
-          <cell r="F7" t="str">
-            <v>Trà Vinh</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>19</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>14</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>00</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>04</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="P8" t="str">
-            <v>2024</v>
           </cell>
         </row>
         <row r="9">
@@ -1167,7 +1151,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="H13" sqref="H13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,11 +1175,8 @@
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="str">
-        <f>"Điểm coi thi:
- "&amp;'[1]Danh Sach'!A2</f>
-        <v>Điểm coi thi:
- Thực hành Sư phạm</v>
+      <c r="A2" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1247,9 +1228,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="str">
-        <f>IF(A2="","","KỲ THI TUYỂN SINH LỚP 10, KHÓA NGÀY "&amp;RIGHT('[1]Danh Sach'!A3,10))</f>
-        <v>KỲ THI TUYỂN SINH LỚP 10, KHÓA NGÀY 05/06/2024</v>
+      <c r="A5" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1281,7 +1261,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1289,7 +1269,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1299,7 +1279,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -1307,7 +1287,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1317,7 +1297,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -1333,7 +1313,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1349,7 +1329,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1365,15 +1345,14 @@
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="18" t="str">
-        <f>"Phòng thi số: "&amp;IF($K$3="","",IF(LEN($K$3)=1,"00"&amp;$K$3,IF(LEN($K$3)=2,"0"&amp;$K$3,$K$3)))</f>
-        <v>Phòng thi số: 007</v>
+      <c r="H12" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1388,9 +1367,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="19" t="str">
-        <f>IF('[1]Phan phong'!H6="","",'[1]Phan phong'!F7&amp;", ngày "&amp;'[1]Phan phong'!H6&amp;" tháng "&amp;'[1]Phan phong'!J6&amp;" năm "&amp;'[1]Phan phong'!L6)</f>
-        <v>Trà Vinh, ngày 22 tháng 5 năm 2024</v>
+      <c r="H13" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -1472,9 +1450,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="str">
-        <f>"Thí sinh có mặt tại phòng thi lúc "&amp;'[1]Phan phong'!H8&amp;" giờ "&amp;'[1]Phan phong'!J8&amp;" phút ngày "&amp;'[1]Phan phong'!L8&amp;"/"&amp;'[1]Phan phong'!N8&amp;"/"&amp;'[1]Phan phong'!P8&amp;" để làm thủ tục dự thi"</f>
-        <v>Thí sinh có mặt tại phòng thi lúc 14 giờ 00 phút ngày 04/6/2024 để làm thủ tục dự thi</v>
+      <c r="A19" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
